--- a/Sprint-8/Sprint_8 Burndown-Backlog.xlsx
+++ b/Sprint-8/Sprint_8 Burndown-Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\breno\Downloads\adocao11\Sprint-8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danil\Desktop\Projeto\adocao\Sprint-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="990" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="57">
   <si>
     <t>SPRINT BACKLOG</t>
   </si>
@@ -121,38 +121,6 @@
     <t>Danilo DATA</t>
   </si>
   <si>
-    <t>Terça
-25/09/2016</t>
-  </si>
-  <si>
-    <t>Quarta
-26/09/2016</t>
-  </si>
-  <si>
-    <t>Quinta
-27/09/2016</t>
-  </si>
-  <si>
-    <t>Sexta
-28/09/2016</t>
-  </si>
-  <si>
-    <t>Sábado
-29/09/2016</t>
-  </si>
-  <si>
-    <t>Domingo
-30/09/2016</t>
-  </si>
-  <si>
-    <t>Segunda
-31/09/2016</t>
-  </si>
-  <si>
-    <t>Terça
-01/09/2016</t>
-  </si>
-  <si>
     <t>É necessário fazer as atualizações da documentação do software, para que esteja de acordo com o código escrito</t>
   </si>
   <si>
@@ -210,6 +178,36 @@
   <si>
     <t>Atualizar Relacionamentos Classes</t>
   </si>
+  <si>
+    <t>O administrador irá possuir a opção de recuperação de senha e poderá editar e visualizar seus dados dentro do sistema</t>
+  </si>
+  <si>
+    <t>Modificações e Correções de Bugs</t>
+  </si>
+  <si>
+    <t>Criar Classe Sessão</t>
+  </si>
+  <si>
+    <t>Criar Tela DadosAdm</t>
+  </si>
+  <si>
+    <t>Criar Método de Busca e Alteração dos Dados dos Adm</t>
+  </si>
+  <si>
+    <t>Mesclar Model e View e Tratar o ControllerMenu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificação Tela DetalheAdoção </t>
+  </si>
+  <si>
+    <t>Modificação cadastro Administrador</t>
+  </si>
+  <si>
+    <t>Bug na Alteração dos Dados dos Candidatos</t>
+  </si>
+  <si>
+    <t>Bug na Visualização dos Candidatos e Adoções</t>
+  </si>
 </sst>
 </file>
 
@@ -219,7 +217,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$R$ -416]#,##0.00"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -281,13 +279,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
@@ -306,7 +297,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,12 +354,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor rgb="FFB7B7B7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor rgb="FFB7B7B7"/>
       </patternFill>
@@ -380,7 +365,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -477,11 +462,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -517,10 +522,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -544,44 +549,47 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -611,9 +619,6 @@
     <xf numFmtId="4" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -626,20 +631,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -651,7 +650,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="176">
+  <dxfs count="185">
     <dxf>
       <fill>
         <patternFill>
@@ -779,6 +778,132 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1C4587"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1C4587"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1C4587"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
@@ -3269,35 +3394,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-25/09/2016</c:v>
+01/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-26/09/2016</c:v>
+02/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-27/09/2016</c:v>
+03/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-28/09/2016</c:v>
+04/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-29/09/2016</c:v>
+05/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-30/09/2016</c:v>
+06/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-31/09/2016</c:v>
+07/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-01/09/2016</c:v>
+08/11/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3309,28 +3434,28 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>9</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.875</c:v>
+                  <c:v>16.1875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.75</c:v>
+                  <c:v>13.875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.625</c:v>
+                  <c:v>11.5625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5</c:v>
+                  <c:v>9.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.375</c:v>
+                  <c:v>6.9375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.25</c:v>
+                  <c:v>4.625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.125</c:v>
+                  <c:v>2.3125</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3402,35 +3527,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-25/09/2016</c:v>
+01/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-26/09/2016</c:v>
+02/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-27/09/2016</c:v>
+03/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-28/09/2016</c:v>
+04/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-29/09/2016</c:v>
+05/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-30/09/2016</c:v>
+06/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-31/09/2016</c:v>
+07/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-01/09/2016</c:v>
+08/11/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3442,31 +3567,31 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>9</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>17.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8</c:v>
+                  <c:v>15.58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.95</c:v>
+                  <c:v>14.13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5500000000000007</c:v>
+                  <c:v>9.84</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5500000000000007</c:v>
+                  <c:v>7.64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2500000000000009</c:v>
+                  <c:v>6.2899999999999991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1500000000000008</c:v>
+                  <c:v>1.5499999999999989</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1500000000000008</c:v>
+                  <c:v>1.5499999999999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3810,28 +3935,28 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8.3125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7.125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.9375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3.5625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.1875</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3943,31 +4068,31 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7.78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>7.1800000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5.2900000000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4.0900000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.0400000000000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.400000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5128,7 +5253,7 @@
   <dimension ref="A1:AB1048573"/>
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F16"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5145,16 +5270,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
@@ -5179,27 +5304,27 @@
       <c r="AB1" s="4"/>
     </row>
     <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="35">
+      <c r="I2" s="32">
         <v>8</v>
       </c>
       <c r="J2" s="3"/>
@@ -5223,9 +5348,9 @@
       <c r="AB2" s="4"/>
     </row>
     <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
@@ -5238,8 +5363,8 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -5261,11 +5386,11 @@
       <c r="AB3" s="4"/>
     </row>
     <row r="4" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
-        <v>38</v>
+      <c r="A4" s="37" t="s">
+        <v>30</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>24</v>
@@ -5273,14 +5398,14 @@
       <c r="D4" s="5">
         <v>1.5</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="40">
         <f>SUM(D4:D9)</f>
         <v>9</v>
       </c>
       <c r="F4" s="6">
         <v>1.2</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="43">
         <f>SUM(F4:F9)</f>
         <v>8.85</v>
       </c>
@@ -5307,9 +5432,9 @@
       <c r="AB4" s="4"/>
     </row>
     <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="37"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="25" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>24</v>
@@ -5317,11 +5442,11 @@
       <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="6">
         <v>0.85</v>
       </c>
-      <c r="G5" s="43"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="23" t="s">
         <v>10</v>
       </c>
@@ -5346,9 +5471,9 @@
       <c r="AB5" s="4"/>
     </row>
     <row r="6" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="25" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
@@ -5356,11 +5481,11 @@
       <c r="D6" s="5">
         <v>2</v>
       </c>
-      <c r="E6" s="40"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="6">
         <v>2.4</v>
       </c>
-      <c r="G6" s="43"/>
+      <c r="G6" s="44"/>
       <c r="H6" s="23" t="s">
         <v>10</v>
       </c>
@@ -5384,9 +5509,9 @@
       <c r="AB6" s="4"/>
     </row>
     <row r="7" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="25" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>24</v>
@@ -5394,11 +5519,11 @@
       <c r="D7" s="5">
         <v>1.5</v>
       </c>
-      <c r="E7" s="40"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="6">
         <v>1</v>
       </c>
-      <c r="G7" s="43"/>
+      <c r="G7" s="44"/>
       <c r="H7" s="23" t="s">
         <v>10</v>
       </c>
@@ -5422,9 +5547,9 @@
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="25" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>24</v>
@@ -5432,11 +5557,11 @@
       <c r="D8" s="5">
         <v>0.5</v>
       </c>
-      <c r="E8" s="40"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="6">
         <v>0.3</v>
       </c>
-      <c r="G8" s="43"/>
+      <c r="G8" s="44"/>
       <c r="H8" s="23" t="s">
         <v>10</v>
       </c>
@@ -5460,9 +5585,9 @@
       <c r="AB8" s="4"/>
     </row>
     <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="25" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>24</v>
@@ -5470,11 +5595,11 @@
       <c r="D9" s="5">
         <v>2.5</v>
       </c>
-      <c r="E9" s="41"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="6">
         <v>3.1</v>
       </c>
-      <c r="G9" s="44"/>
+      <c r="G9" s="45"/>
       <c r="H9" s="23" t="s">
         <v>10</v>
       </c>
@@ -5498,20 +5623,28 @@
       <c r="AB9" s="4"/>
     </row>
     <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>49</v>
+      </c>
       <c r="C10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="45">
+      <c r="D10" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="36">
         <f>SUM(D10:D13)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="F10" s="27">
+        <v>0.36</v>
+      </c>
+      <c r="G10" s="36">
         <f>SUM(F10:F13)</f>
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="H10" s="23" t="s">
         <v>10</v>
@@ -5538,15 +5671,21 @@
       <c r="AB10" s="4"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="24" t="s">
+        <v>50</v>
+      </c>
       <c r="C11" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="45"/>
+      <c r="D11" s="27">
+        <v>1</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="27">
+        <v>1.27</v>
+      </c>
+      <c r="G11" s="36"/>
       <c r="H11" s="23" t="s">
         <v>10</v>
       </c>
@@ -5572,15 +5711,21 @@
       <c r="AB11" s="4"/>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="C12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="45"/>
+      <c r="D12" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="27">
+        <v>0.45</v>
+      </c>
+      <c r="G12" s="36"/>
       <c r="H12" s="23" t="s">
         <v>10</v>
       </c>
@@ -5606,15 +5751,21 @@
       <c r="AB12" s="4"/>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="33"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="24" t="s">
+        <v>52</v>
+      </c>
       <c r="C13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="45"/>
+      <c r="D13" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="G13" s="36"/>
       <c r="H13" s="23" t="s">
         <v>10</v>
       </c>
@@ -5640,22 +5791,30 @@
       <c r="AB13" s="4"/>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="21" t="s">
+      <c r="A14" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="34">
-        <f>SUM(D14:D16)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="34">
-        <f>SUM(F14:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="22" t="s">
+      <c r="D14" s="27">
+        <v>2</v>
+      </c>
+      <c r="E14" s="36">
+        <f>SUM(D14:D17)</f>
+        <v>7</v>
+      </c>
+      <c r="F14" s="27">
+        <v>1.89</v>
+      </c>
+      <c r="G14" s="36">
+        <f>SUM(F14:F17)</f>
+        <v>7.3599999999999994</v>
+      </c>
+      <c r="H14" s="23" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="4"/>
@@ -5680,16 +5839,22 @@
       <c r="AB14" s="4"/>
     </row>
     <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="21" t="s">
+      <c r="A15" s="34"/>
+      <c r="B15" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="22" t="s">
+      <c r="D15" s="27">
+        <v>2</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="27">
+        <v>2.25</v>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="23" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="4"/>
@@ -5714,16 +5879,22 @@
       <c r="AB15" s="4"/>
     </row>
     <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="21" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="22" t="s">
+      <c r="D16" s="27">
+        <v>1</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="27">
+        <v>1.64</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="23" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="4"/>
@@ -5747,6 +5918,26 @@
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
     </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="35"/>
+      <c r="B17" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="27">
+        <v>2</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="27">
+        <v>1.58</v>
+      </c>
+      <c r="G17" s="36"/>
+      <c r="H17" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="1048559" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048560" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048561" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5764,6 +5955,9 @@
     <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="G14:G17"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="E4:E9"/>
@@ -5771,9 +5965,6 @@
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="G10:G13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="G14:G16"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -5783,12 +5974,12 @@
     <mergeCell ref="H2:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I3">
-    <cfRule type="expression" dxfId="175" priority="2">
+    <cfRule type="expression" dxfId="184" priority="2">
       <formula>LEN(TRIM(I1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I3">
-    <cfRule type="notContainsText" dxfId="174" priority="3" operator="notContains" text="676766676ppppp"/>
+    <cfRule type="notContainsText" dxfId="183" priority="3" operator="notContains" text="676766676ppppp"/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5802,9 +5993,9 @@
   </sheetPr>
   <dimension ref="A1:S1048575"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5904,28 +6095,28 @@
         <v>14</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H3" s="51" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I3" s="51" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J3" s="51" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K3" s="49" t="s">
         <v>15</v>
@@ -5968,35 +6159,35 @@
       </c>
       <c r="B5" s="13">
         <f>SUM('Sprint Backlog'!D:D)</f>
-        <v>9</v>
+        <v>18.5</v>
       </c>
       <c r="C5" s="14">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>7.875</v>
+        <v>16.1875</v>
       </c>
       <c r="D5" s="14">
         <f t="shared" si="1"/>
-        <v>6.75</v>
+        <v>13.875</v>
       </c>
       <c r="E5" s="14">
         <f t="shared" si="1"/>
-        <v>5.625</v>
+        <v>11.5625</v>
       </c>
       <c r="F5" s="14">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>9.25</v>
       </c>
       <c r="G5" s="14">
         <f t="shared" si="1"/>
-        <v>3.375</v>
+        <v>6.9375</v>
       </c>
       <c r="H5" s="14">
         <f t="shared" si="1"/>
-        <v>2.25</v>
+        <v>4.625</v>
       </c>
       <c r="I5" s="14">
         <f t="shared" si="1"/>
-        <v>1.125</v>
+        <v>2.3125</v>
       </c>
       <c r="J5" s="14">
         <f t="shared" si="1"/>
@@ -6004,11 +6195,11 @@
       </c>
       <c r="K5" s="14">
         <f>SUM(C5:J5)</f>
-        <v>31.5</v>
+        <v>64.75</v>
       </c>
       <c r="L5" s="14">
         <f>K5/A$3</f>
-        <v>3.9375</v>
+        <v>8.09375</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -6024,47 +6215,47 @@
       </c>
       <c r="B6" s="13">
         <f>B5</f>
-        <v>9</v>
+        <v>18.5</v>
       </c>
       <c r="C6" s="14">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>9</v>
+        <v>17.23</v>
       </c>
       <c r="D6" s="14">
         <f t="shared" si="2"/>
-        <v>7.8</v>
+        <v>15.58</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="2"/>
-        <v>6.95</v>
+        <v>14.13</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="2"/>
-        <v>4.5500000000000007</v>
+        <v>9.84</v>
       </c>
       <c r="G6" s="14">
         <f t="shared" si="2"/>
-        <v>3.5500000000000007</v>
+        <v>7.64</v>
       </c>
       <c r="H6" s="14">
         <f t="shared" si="2"/>
-        <v>3.2500000000000009</v>
+        <v>6.2899999999999991</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="2"/>
-        <v>0.1500000000000008</v>
+        <v>1.5499999999999989</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="2"/>
-        <v>0.1500000000000008</v>
+        <v>1.5499999999999989</v>
       </c>
       <c r="K6" s="14">
         <f>SUM(C6:J6)</f>
-        <v>35.4</v>
+        <v>73.81</v>
       </c>
       <c r="L6" s="14">
         <f>K6/A$3</f>
-        <v>4.4249999999999998</v>
+        <v>9.2262500000000003</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -6128,35 +6319,35 @@
       </c>
       <c r="B9" s="17">
         <f>B5/A3</f>
-        <v>1.125</v>
+        <v>2.3125</v>
       </c>
       <c r="C9" s="17">
         <f t="shared" ref="C9:K9" si="3">SUM(C10:C11)</f>
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="D9" s="17">
         <f t="shared" si="3"/>
-        <v>1.2</v>
+        <v>1.65</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="3"/>
-        <v>0.85</v>
+        <v>1.45</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" si="3"/>
-        <v>2.4</v>
+        <v>4.29</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="3"/>
-        <v>0.3</v>
+        <v>1.35</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="3"/>
-        <v>3.1</v>
+        <v>4.74</v>
       </c>
       <c r="J9" s="17">
         <f t="shared" si="3"/>
@@ -6164,11 +6355,11 @@
       </c>
       <c r="K9" s="17">
         <f t="shared" si="3"/>
-        <v>8.85</v>
+        <v>16.95</v>
       </c>
       <c r="L9" s="17">
         <f>K9/A$3</f>
-        <v>1.10625</v>
+        <v>2.1187499999999999</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -6184,35 +6375,35 @@
       </c>
       <c r="B10" s="19">
         <f>'Danilo Burndown'!B9</f>
-        <v>0</v>
+        <v>1.1875</v>
       </c>
       <c r="C10" s="14">
         <f>'Danilo Burndown'!C9</f>
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="D10" s="14">
         <f>'Danilo Burndown'!D9</f>
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="E10" s="14">
         <f>'Danilo Burndown'!E9</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F10" s="14">
         <f>'Danilo Burndown'!F9</f>
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="G10" s="14">
         <f>'Danilo Burndown'!G9</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="H10" s="14">
         <f>'Danilo Burndown'!H9</f>
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="I10" s="14">
         <f>'Danilo Burndown'!I9</f>
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="J10" s="14">
         <f>'Danilo Burndown'!J9</f>
@@ -6220,11 +6411,11 @@
       </c>
       <c r="K10" s="14">
         <f>SUM(C10:J10)</f>
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="L10" s="14">
         <f>K10/A$3</f>
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -6313,710 +6504,710 @@
     <mergeCell ref="L3:L4"/>
   </mergeCells>
   <conditionalFormatting sqref="C10 B10:B11">
-    <cfRule type="expression" dxfId="173" priority="2">
+    <cfRule type="expression" dxfId="182" priority="2">
       <formula>LEN(TRIM(B10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="172" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="171" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="180" priority="4" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B11">
-    <cfRule type="notContainsText" dxfId="170" priority="6" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="179" priority="6" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="169" priority="7">
+    <cfRule type="expression" dxfId="178" priority="7">
       <formula>LEN(TRIM(K5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="168" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="167" priority="9" operator="notEqual">
+    <cfRule type="cellIs" dxfId="176" priority="9" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="166" priority="10">
+    <cfRule type="expression" dxfId="175" priority="10">
       <formula>LEN(TRIM(K5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="165" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="164" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="173" priority="12" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="163" priority="13">
+    <cfRule type="expression" dxfId="172" priority="13">
       <formula>LEN(TRIM(K6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="162" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="161" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="170" priority="15" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="160" priority="16">
+    <cfRule type="expression" dxfId="169" priority="16">
       <formula>LEN(TRIM(K6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="159" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="158" priority="18" operator="notEqual">
+    <cfRule type="cellIs" dxfId="167" priority="18" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="157" priority="19">
+    <cfRule type="expression" dxfId="166" priority="19">
       <formula>LEN(TRIM(L6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="156" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="155" priority="21" operator="notEqual">
+    <cfRule type="cellIs" dxfId="164" priority="21" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="154" priority="22">
+    <cfRule type="expression" dxfId="163" priority="22">
       <formula>LEN(TRIM(L6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="153" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="152" priority="24" operator="notEqual">
+    <cfRule type="cellIs" dxfId="161" priority="24" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="151" priority="25">
+    <cfRule type="expression" dxfId="160" priority="25">
       <formula>LEN(TRIM(L5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="150" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="149" priority="27" operator="notEqual">
+    <cfRule type="cellIs" dxfId="158" priority="27" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="148" priority="28">
+    <cfRule type="expression" dxfId="157" priority="28">
       <formula>LEN(TRIM(L5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="147" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="146" priority="30" operator="notEqual">
+    <cfRule type="cellIs" dxfId="155" priority="30" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="145" priority="31">
+    <cfRule type="expression" dxfId="154" priority="31">
       <formula>LEN(TRIM(K10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="144" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="143" priority="33" operator="notEqual">
+    <cfRule type="cellIs" dxfId="152" priority="33" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="142" priority="34">
+    <cfRule type="expression" dxfId="151" priority="34">
       <formula>LEN(TRIM(K10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="141" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="140" priority="36" operator="notEqual">
+    <cfRule type="cellIs" dxfId="149" priority="36" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="139" priority="43">
+    <cfRule type="expression" dxfId="148" priority="43">
       <formula>LEN(TRIM(K11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="138" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="137" priority="45" operator="notEqual">
+    <cfRule type="cellIs" dxfId="146" priority="45" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="136" priority="46">
+    <cfRule type="expression" dxfId="145" priority="46">
       <formula>LEN(TRIM(K11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="135" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="134" priority="48" operator="notEqual">
+    <cfRule type="cellIs" dxfId="143" priority="48" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="133" priority="49">
+    <cfRule type="expression" dxfId="142" priority="49">
       <formula>LEN(TRIM(L10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="132" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="50" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="131" priority="51" operator="notEqual">
+    <cfRule type="cellIs" dxfId="140" priority="51" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="130" priority="52">
+    <cfRule type="expression" dxfId="139" priority="52">
       <formula>LEN(TRIM(L10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="129" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="128" priority="54" operator="notEqual">
+    <cfRule type="cellIs" dxfId="137" priority="54" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="127" priority="61">
+    <cfRule type="expression" dxfId="136" priority="61">
       <formula>LEN(TRIM(L11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="126" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="62" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="125" priority="63" operator="notEqual">
+    <cfRule type="cellIs" dxfId="134" priority="63" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="124" priority="64">
+    <cfRule type="expression" dxfId="133" priority="64">
       <formula>LEN(TRIM(L11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="123" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="122" priority="66" operator="notEqual">
+    <cfRule type="cellIs" dxfId="131" priority="66" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="121" priority="67">
+    <cfRule type="expression" dxfId="130" priority="67">
       <formula>LEN(TRIM(D10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="120" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="68" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="119" priority="69" operator="notEqual">
+    <cfRule type="cellIs" dxfId="128" priority="69" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="118" priority="70">
+    <cfRule type="expression" dxfId="127" priority="70">
       <formula>LEN(TRIM(D10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="117" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="71" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="116" priority="72" operator="notEqual">
+    <cfRule type="cellIs" dxfId="125" priority="72" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="115" priority="73">
+    <cfRule type="expression" dxfId="124" priority="73">
       <formula>LEN(TRIM(E10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="114" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="74" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="113" priority="75" operator="notEqual">
+    <cfRule type="cellIs" dxfId="122" priority="75" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="112" priority="76">
+    <cfRule type="expression" dxfId="121" priority="76">
       <formula>LEN(TRIM(E10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="111" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="77" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="110" priority="78" operator="notEqual">
+    <cfRule type="cellIs" dxfId="119" priority="78" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="109" priority="79">
+    <cfRule type="expression" dxfId="118" priority="79">
       <formula>LEN(TRIM(F10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="108" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="80" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="107" priority="81" operator="notEqual">
+    <cfRule type="cellIs" dxfId="116" priority="81" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="106" priority="82">
+    <cfRule type="expression" dxfId="115" priority="82">
       <formula>LEN(TRIM(F10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="105" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="83" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="104" priority="84" operator="notEqual">
+    <cfRule type="cellIs" dxfId="113" priority="84" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="103" priority="85">
+    <cfRule type="expression" dxfId="112" priority="85">
       <formula>LEN(TRIM(G10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="102" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="86" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="101" priority="87" operator="notEqual">
+    <cfRule type="cellIs" dxfId="110" priority="87" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="100" priority="88">
+    <cfRule type="expression" dxfId="109" priority="88">
       <formula>LEN(TRIM(G10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="99" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="89" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="98" priority="90" operator="notEqual">
+    <cfRule type="cellIs" dxfId="107" priority="90" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="97" priority="91">
+    <cfRule type="expression" dxfId="106" priority="91">
       <formula>LEN(TRIM(H10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="96" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="92" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="95" priority="93" operator="notEqual">
+    <cfRule type="cellIs" dxfId="104" priority="93" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="94" priority="94">
+    <cfRule type="expression" dxfId="103" priority="94">
       <formula>LEN(TRIM(H10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="93" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="95" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="92" priority="96" operator="notEqual">
+    <cfRule type="cellIs" dxfId="101" priority="96" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="91" priority="97">
+    <cfRule type="expression" dxfId="100" priority="97">
       <formula>LEN(TRIM(I10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="90" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="98" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="89" priority="99" operator="notEqual">
+    <cfRule type="cellIs" dxfId="98" priority="99" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="88" priority="100">
+    <cfRule type="expression" dxfId="97" priority="100">
       <formula>LEN(TRIM(I10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="87" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="101" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="86" priority="102" operator="notEqual">
+    <cfRule type="cellIs" dxfId="95" priority="102" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="85" priority="103">
+    <cfRule type="expression" dxfId="94" priority="103">
       <formula>LEN(TRIM(J10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="84" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="104" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="83" priority="105" operator="notEqual">
+    <cfRule type="cellIs" dxfId="92" priority="105" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="82" priority="106">
+    <cfRule type="expression" dxfId="91" priority="106">
       <formula>LEN(TRIM(J10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="81" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="107" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="80" priority="108" operator="notEqual">
+    <cfRule type="cellIs" dxfId="89" priority="108" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="79" priority="115">
+    <cfRule type="expression" dxfId="88" priority="115">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="78" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="116" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="77" priority="117" operator="notEqual">
+    <cfRule type="cellIs" dxfId="86" priority="117" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="76" priority="118">
+    <cfRule type="expression" dxfId="85" priority="118">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="75" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="119" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="74" priority="120" operator="notEqual">
+    <cfRule type="cellIs" dxfId="83" priority="120" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="73" priority="163">
+    <cfRule type="expression" dxfId="82" priority="163">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="72" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="164" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="71" priority="165" operator="notEqual">
+    <cfRule type="cellIs" dxfId="80" priority="165" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="70" priority="166">
+    <cfRule type="expression" dxfId="79" priority="166">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="69" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="167" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="68" priority="168" operator="notEqual">
+    <cfRule type="cellIs" dxfId="77" priority="168" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="67" priority="169">
+    <cfRule type="expression" dxfId="76" priority="169">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="66" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="170" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="65" priority="171" operator="notEqual">
+    <cfRule type="cellIs" dxfId="74" priority="171" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="64" priority="172">
+    <cfRule type="expression" dxfId="73" priority="172">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="63" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="173" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="62" priority="174" operator="notEqual">
+    <cfRule type="cellIs" dxfId="71" priority="174" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="61" priority="175">
+    <cfRule type="expression" dxfId="70" priority="175">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="60" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="176" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="59" priority="177" operator="notEqual">
+    <cfRule type="cellIs" dxfId="68" priority="177" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="58" priority="178">
+    <cfRule type="expression" dxfId="67" priority="178">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="57" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="179" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="56" priority="180" operator="notEqual">
+    <cfRule type="cellIs" dxfId="65" priority="180" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="55" priority="181">
+    <cfRule type="expression" dxfId="64" priority="181">
       <formula>LEN(TRIM(G11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="54" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="182" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="53" priority="183" operator="notEqual">
+    <cfRule type="cellIs" dxfId="62" priority="183" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="52" priority="184">
+    <cfRule type="expression" dxfId="61" priority="184">
       <formula>LEN(TRIM(G11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="51" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="185" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="50" priority="186" operator="notEqual">
+    <cfRule type="cellIs" dxfId="59" priority="186" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="49" priority="187">
+    <cfRule type="expression" dxfId="58" priority="187">
       <formula>LEN(TRIM(H11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="48" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="188" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="47" priority="189" operator="notEqual">
+    <cfRule type="cellIs" dxfId="56" priority="189" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="46" priority="190">
+    <cfRule type="expression" dxfId="55" priority="190">
       <formula>LEN(TRIM(H11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="45" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="191" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="44" priority="192" operator="notEqual">
+    <cfRule type="cellIs" dxfId="53" priority="192" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="43" priority="193">
+    <cfRule type="expression" dxfId="52" priority="193">
       <formula>LEN(TRIM(I11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="42" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="194" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="41" priority="195" operator="notEqual">
+    <cfRule type="cellIs" dxfId="50" priority="195" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="40" priority="196">
+    <cfRule type="expression" dxfId="49" priority="196">
       <formula>LEN(TRIM(I11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="39" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="197" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="38" priority="198" operator="notEqual">
+    <cfRule type="cellIs" dxfId="47" priority="198" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="37" priority="199">
+    <cfRule type="expression" dxfId="46" priority="199">
       <formula>LEN(TRIM(J11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="36" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="200" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="35" priority="201" operator="notEqual">
+    <cfRule type="cellIs" dxfId="44" priority="201" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="34" priority="202">
+    <cfRule type="expression" dxfId="43" priority="202">
       <formula>LEN(TRIM(J11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="33" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="203" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="32" priority="204" operator="notEqual">
+    <cfRule type="cellIs" dxfId="41" priority="204" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7035,7 +7226,7 @@
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7127,29 +7318,29 @@
       <c r="B3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="53" t="s">
-        <v>51</v>
+      <c r="D3" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>43</v>
       </c>
       <c r="K3" s="49" t="s">
         <v>15</v>
@@ -7168,14 +7359,14 @@
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="48"/>
       <c r="B4" s="49"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
       <c r="K4" s="49"/>
       <c r="L4" s="49"/>
       <c r="M4" s="8"/>
@@ -7192,35 +7383,35 @@
       </c>
       <c r="B5" s="13">
         <f>SUMIF('Sprint Backlog'!C:C,"=Danilo",'Sprint Backlog'!D:D)</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="C5" s="14">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>0</v>
+        <v>8.3125</v>
       </c>
       <c r="D5" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.125</v>
       </c>
       <c r="E5" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.9375</v>
       </c>
       <c r="F5" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="G5" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.5625</v>
       </c>
       <c r="H5" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.375</v>
       </c>
       <c r="I5" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.1875</v>
       </c>
       <c r="J5" s="14">
         <f t="shared" si="1"/>
@@ -7228,11 +7419,11 @@
       </c>
       <c r="K5" s="14">
         <f>SUM(C5:J5)</f>
-        <v>0</v>
+        <v>33.25</v>
       </c>
       <c r="L5" s="14">
         <f>K5/A$3</f>
-        <v>0</v>
+        <v>4.15625</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -7248,47 +7439,47 @@
       </c>
       <c r="B6" s="13">
         <f>B5</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="C6" s="14">
         <f>B6-C9</f>
-        <v>0</v>
+        <v>8.23</v>
       </c>
       <c r="D6" s="14">
         <f t="shared" ref="D6:J6" si="2">C6-D9</f>
-        <v>0</v>
+        <v>7.78</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.1800000000000006</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.2900000000000009</v>
       </c>
       <c r="G6" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.0900000000000007</v>
       </c>
       <c r="H6" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.0400000000000009</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.400000000000001</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.400000000000001</v>
       </c>
       <c r="K6" s="14">
         <f>SUM(C6:J6)</f>
-        <v>0</v>
+        <v>38.410000000000004</v>
       </c>
       <c r="L6" s="14">
         <f>K6/A$3</f>
-        <v>0</v>
+        <v>4.8012500000000005</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -7352,47 +7543,47 @@
       </c>
       <c r="B9" s="17">
         <f>B5/A3</f>
-        <v>0</v>
+        <v>1.1875</v>
       </c>
       <c r="C9" s="17">
-        <f t="shared" ref="C9:L9" si="3">SUM(C10:C11)</f>
-        <v>0</v>
+        <f t="shared" ref="C9:I9" si="3">SUM(C10:C17)</f>
+        <v>1.27</v>
       </c>
       <c r="D9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="3"/>
+        <v>1.64</v>
+      </c>
+      <c r="J9" s="17">
+        <f t="shared" ref="J9" si="4">SUM(J10:J11)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="K9" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(K10:K17)</f>
+        <v>10.040000000000001</v>
       </c>
       <c r="L9" s="17">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUM(L10:L17)</f>
+        <v>1.2550000000000001</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -7403,9 +7594,13 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
+      <c r="A10" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="28">
+        <v>0.36</v>
+      </c>
+      <c r="C10" s="28"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -7415,11 +7610,11 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14">
         <f>SUM(B10:J10)</f>
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="L10" s="14">
-        <f t="shared" ref="L10:L16" si="4">K10/A$3</f>
-        <v>0</v>
+        <f t="shared" ref="L10:L16" si="5">K10/A$3</f>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="52"/>
@@ -7430,9 +7625,13 @@
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
+      <c r="A11" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28">
+        <v>1.27</v>
+      </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -7441,26 +7640,30 @@
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14">
-        <f t="shared" ref="K11:K16" si="5">SUM(C11:J11)</f>
-        <v>0</v>
+        <f t="shared" ref="K11:K16" si="6">SUM(C11:J11)</f>
+        <v>1.27</v>
       </c>
       <c r="L11" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.15875</v>
       </c>
       <c r="M11" s="8"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="14"/>
+      <c r="A12" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="14">
+        <v>0.45</v>
+      </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -7468,92 +7671,134 @@
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14">
+        <f t="shared" si="6"/>
+        <v>0.45</v>
+      </c>
+      <c r="L12" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.6250000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
+      <c r="A13" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="E13" s="14">
+        <v>0.6</v>
+      </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14">
+        <f t="shared" si="6"/>
+        <v>0.6</v>
+      </c>
+      <c r="L13" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
+      <c r="A14" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="F14" s="14">
+        <v>1.89</v>
+      </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14">
+        <f t="shared" si="6"/>
+        <v>1.89</v>
+      </c>
+      <c r="L14" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.23624999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="G15" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="H15" s="14">
+        <v>1.05</v>
+      </c>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14">
+        <f t="shared" si="6"/>
+        <v>2.25</v>
+      </c>
+      <c r="L15" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.28125</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
+      <c r="A16" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29">
+        <v>1.64</v>
+      </c>
+      <c r="J16" s="29"/>
       <c r="K16" s="14">
+        <f t="shared" si="6"/>
+        <v>1.64</v>
+      </c>
+      <c r="L16" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29">
+        <v>1.58</v>
+      </c>
+      <c r="K17" s="14">
+        <f t="shared" ref="K17" si="7">SUM(C17:J17)</f>
+        <v>1.58</v>
+      </c>
+      <c r="L17" s="14">
+        <f t="shared" ref="L17" si="8">K17/A$3</f>
+        <v>0.19750000000000001</v>
       </c>
     </row>
     <row r="1048571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7562,8 +7807,6 @@
     <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="C8:L8"/>
@@ -7579,86 +7822,133 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
   </mergeCells>
-  <conditionalFormatting sqref="C17:L94 C10:L11 N10:O11 C16:J16">
-    <cfRule type="expression" dxfId="31" priority="16">
+  <conditionalFormatting sqref="C18:L94 C10:L11 N10:O11 C16:J16">
+    <cfRule type="expression" dxfId="40" priority="25">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:L94 C10:L11 C16:J16">
-    <cfRule type="cellIs" dxfId="30" priority="17" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:L94 C10:L11 C16:J16">
-    <cfRule type="cellIs" dxfId="29" priority="18" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:B94">
-    <cfRule type="expression" dxfId="28" priority="19">
-      <formula>LEN(TRIM(A17))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:B94 N10:O11">
-    <cfRule type="notContainsText" dxfId="27" priority="20" operator="notContains" text="9875894754())("/>
+  <conditionalFormatting sqref="C18:L94 C10:L11 C16:J16">
+    <cfRule type="cellIs" dxfId="39" priority="26" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:L94 C10:L11 C16:J16">
+    <cfRule type="cellIs" dxfId="38" priority="27" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:B94">
+    <cfRule type="expression" dxfId="37" priority="28">
+      <formula>LEN(TRIM(A18))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:B94 N10:O11">
+    <cfRule type="notContainsText" dxfId="36" priority="29" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:L15">
+    <cfRule type="expression" dxfId="35" priority="19">
+      <formula>LEN(TRIM(C12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:L15">
+    <cfRule type="cellIs" dxfId="34" priority="20" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:L15">
+    <cfRule type="cellIs" dxfId="33" priority="21" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16 B10:B11">
+    <cfRule type="expression" dxfId="32" priority="16">
+      <formula>LEN(TRIM(B10))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16 B10:B11">
+    <cfRule type="cellIs" dxfId="31" priority="17" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16 B10:B11">
+    <cfRule type="cellIs" dxfId="30" priority="18" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B15">
+    <cfRule type="expression" dxfId="29" priority="13">
+      <formula>LEN(TRIM(B12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B15">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:B15">
+    <cfRule type="cellIs" dxfId="27" priority="15" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:L16">
     <cfRule type="expression" dxfId="26" priority="10">
-      <formula>LEN(TRIM(C12))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:L15">
+      <formula>LEN(TRIM(K16))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:L16">
     <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:L15">
+  <conditionalFormatting sqref="K16:L16">
     <cfRule type="cellIs" dxfId="24" priority="12" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16 B10:B11">
+  <conditionalFormatting sqref="C17:J17">
     <cfRule type="expression" dxfId="23" priority="7">
-      <formula>LEN(TRIM(B10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16 B10:B11">
+      <formula>LEN(TRIM(C17))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:J17">
     <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16 B10:B11">
+  <conditionalFormatting sqref="C17:J17">
     <cfRule type="cellIs" dxfId="21" priority="9" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:B15">
+  <conditionalFormatting sqref="B17">
     <cfRule type="expression" dxfId="20" priority="4">
-      <formula>LEN(TRIM(B12))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:B15">
+      <formula>LEN(TRIM(B17))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
     <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:B15">
+  <conditionalFormatting sqref="B17">
     <cfRule type="cellIs" dxfId="18" priority="6" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:L16">
+  <conditionalFormatting sqref="K17:L17">
     <cfRule type="expression" dxfId="17" priority="1">
-      <formula>LEN(TRIM(K16))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16:L16">
+      <formula>LEN(TRIM(K17))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17:L17">
     <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:L16">
+  <conditionalFormatting sqref="K17:L17">
     <cfRule type="cellIs" dxfId="15" priority="3" operator="notEqual">
       <formula>0</formula>
     </cfRule>
@@ -7676,9 +7966,9 @@
   </sheetPr>
   <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+    <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7770,29 +8060,29 @@
       <c r="B3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="53" t="s">
-        <v>51</v>
+      <c r="D3" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>43</v>
       </c>
       <c r="K3" s="49" t="s">
         <v>15</v>
@@ -7811,14 +8101,14 @@
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="48"/>
       <c r="B4" s="49"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
       <c r="K4" s="49"/>
       <c r="L4" s="49"/>
       <c r="M4" s="8"/>
@@ -8046,10 +8336,10 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="53"/>
+      <c r="A10" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="51"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14">
         <v>1.2</v>
@@ -8078,7 +8368,7 @@
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="52" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B11" s="52"/>
       <c r="C11" s="14"/>
@@ -8109,7 +8399,7 @@
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="52" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B12" s="52"/>
       <c r="C12" s="14"/>
@@ -8139,10 +8429,10 @@
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="56"/>
+      <c r="A13" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="54"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -8170,10 +8460,10 @@
       <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="56"/>
+      <c r="A14" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="54"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -8201,10 +8491,10 @@
       <c r="S14" s="8"/>
     </row>
     <row r="15" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="56"/>
+      <c r="A15" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="54"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
